--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-88320.37208921993</v>
+        <v>-91020.90955804392</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>36.7770039072487</v>
       </c>
       <c r="D2" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>211.2228407230371</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>239.8079481415045</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H2" t="n">
         <v>239.8079481415045</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,16 +738,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>141.7201824441554</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="X3" t="n">
-        <v>199.5910070450163</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>185.1441222713356</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>193.2470507193796</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>216.0785590621988</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.32572783638013</v>
+        <v>12.32572783638012</v>
       </c>
       <c r="H5" t="n">
-        <v>253.6844711066643</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>141.1814615316175</v>
       </c>
       <c r="T5" t="n">
         <v>210.0639896953817</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1074921335361</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7506765600919</v>
+        <v>46.56950213377573</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.26199389935914</v>
+        <v>1.261993899358984</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>142.096855515207</v>
       </c>
       <c r="T6" t="n">
-        <v>90.32514101261374</v>
+        <v>193.7444632813737</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8365899360328</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.32849716123827</v>
+        <v>174.9837255134721</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6555953037877</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>200.7444959205693</v>
       </c>
       <c r="T7" t="n">
-        <v>222.2398575583235</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2461902262361</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>308.6115940416498</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>180.2158708563821</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>49.57372789032946</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>149.0312406204637</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>240.1044458298929</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>24.14662204184549</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615211</v>
+        <v>98.88510599615208</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>230.6952660164345</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>10.48847705530787</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>105.5089280640934</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905236</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
         <v>286.2007761200435</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>181.7176509504866</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>91.89996056624841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1898,10 +1898,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>41.55695577161188</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833465</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2245,16 +2245,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>113.7076464771373</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833791</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>41.33703994142991</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936184</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>20.88994825141612</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>248.0455461130015</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>246.4755938422903</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3196,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>83.06560892428156</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>20.88994825141679</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>134.3852063573446</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179546</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206838</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.1557845699811</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428173</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833818</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.231792566018</v>
+        <v>318.5562537668774</v>
       </c>
       <c r="C2" t="n">
-        <v>959.231792566018</v>
+        <v>281.4077649716767</v>
       </c>
       <c r="D2" t="n">
-        <v>717.0015419180337</v>
+        <v>281.4077649716767</v>
       </c>
       <c r="E2" t="n">
-        <v>717.0015419180337</v>
+        <v>281.4077649716767</v>
       </c>
       <c r="F2" t="n">
-        <v>503.6451371472891</v>
+        <v>274.4622642224732</v>
       </c>
       <c r="G2" t="n">
         <v>261.4148864993047</v>
@@ -4355,25 +4355,25 @@
         <v>959.231792566018</v>
       </c>
       <c r="S2" t="n">
-        <v>959.231792566018</v>
+        <v>803.0167550628461</v>
       </c>
       <c r="T2" t="n">
-        <v>959.231792566018</v>
+        <v>803.0167550628461</v>
       </c>
       <c r="U2" t="n">
-        <v>959.231792566018</v>
+        <v>803.0167550628461</v>
       </c>
       <c r="V2" t="n">
-        <v>959.231792566018</v>
+        <v>803.0167550628461</v>
       </c>
       <c r="W2" t="n">
-        <v>959.231792566018</v>
+        <v>560.7865044148617</v>
       </c>
       <c r="X2" t="n">
-        <v>959.231792566018</v>
+        <v>560.7865044148617</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.231792566018</v>
+        <v>560.7865044148617</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.8751201379029</v>
+        <v>311.2707449511124</v>
       </c>
       <c r="C3" t="n">
-        <v>178.4220908567759</v>
+        <v>311.2707449511124</v>
       </c>
       <c r="D3" t="n">
-        <v>178.4220908567759</v>
+        <v>162.3363352898612</v>
       </c>
       <c r="E3" t="n">
-        <v>19.18463585132036</v>
+        <v>162.3363352898612</v>
       </c>
       <c r="F3" t="n">
         <v>19.18463585132036</v>
@@ -4407,7 +4407,7 @@
         <v>19.18463585132036</v>
       </c>
       <c r="J3" t="n">
-        <v>19.18463585132036</v>
+        <v>85.30141548166254</v>
       </c>
       <c r="K3" t="n">
         <v>152.9092351450194</v>
@@ -4431,28 +4431,28 @@
         <v>959.231792566018</v>
       </c>
       <c r="R3" t="n">
-        <v>959.231792566018</v>
+        <v>938.1198929682048</v>
       </c>
       <c r="S3" t="n">
-        <v>959.231792566018</v>
+        <v>788.6531038308395</v>
       </c>
       <c r="T3" t="n">
-        <v>762.2424967261056</v>
+        <v>788.6531038308395</v>
       </c>
       <c r="U3" t="n">
-        <v>762.2424967261056</v>
+        <v>788.6531038308395</v>
       </c>
       <c r="V3" t="n">
-        <v>762.2424967261056</v>
+        <v>553.5009955990968</v>
       </c>
       <c r="W3" t="n">
-        <v>762.2424967261056</v>
+        <v>311.2707449511124</v>
       </c>
       <c r="X3" t="n">
-        <v>560.6354189028568</v>
+        <v>311.2707449511124</v>
       </c>
       <c r="Y3" t="n">
-        <v>352.8751201379029</v>
+        <v>311.2707449511124</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>293.8129498893298</v>
+        <v>188.1208187792273</v>
       </c>
       <c r="C4" t="n">
-        <v>293.8129498893298</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="D4" t="n">
-        <v>143.6963104769941</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="E4" t="n">
-        <v>143.6963104769941</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="F4" t="n">
-        <v>143.6963104769941</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G4" t="n">
-        <v>143.6963104769941</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H4" t="n">
-        <v>143.6963104769941</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I4" t="n">
         <v>19.18463585132036</v>
@@ -4489,10 +4489,10 @@
         <v>19.18463585132036</v>
       </c>
       <c r="K4" t="n">
-        <v>120.2325654469301</v>
+        <v>60.34504070228357</v>
       </c>
       <c r="L4" t="n">
-        <v>305.0655603477483</v>
+        <v>245.1780356031018</v>
       </c>
       <c r="M4" t="n">
         <v>450.4476363223396</v>
@@ -4510,28 +4510,28 @@
         <v>959.231792566018</v>
       </c>
       <c r="R4" t="n">
-        <v>959.231792566018</v>
+        <v>828.7538312854207</v>
       </c>
       <c r="S4" t="n">
-        <v>959.231792566018</v>
+        <v>641.7395663648797</v>
       </c>
       <c r="T4" t="n">
-        <v>959.231792566018</v>
+        <v>416.1103696772446</v>
       </c>
       <c r="U4" t="n">
-        <v>764.0327514353315</v>
+        <v>416.1103696772446</v>
       </c>
       <c r="V4" t="n">
-        <v>521.8025007873472</v>
+        <v>416.1103696772446</v>
       </c>
       <c r="W4" t="n">
-        <v>521.8025007873472</v>
+        <v>416.1103696772446</v>
       </c>
       <c r="X4" t="n">
-        <v>293.8129498893298</v>
+        <v>188.1208187792273</v>
       </c>
       <c r="Y4" t="n">
-        <v>293.8129498893298</v>
+        <v>188.1208187792273</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>666.7593762997701</v>
+        <v>52.24673718123758</v>
       </c>
       <c r="C5" t="n">
-        <v>666.7593762997701</v>
+        <v>52.24673718123758</v>
       </c>
       <c r="D5" t="n">
-        <v>308.4936776930196</v>
+        <v>52.24673718123758</v>
       </c>
       <c r="E5" t="n">
-        <v>308.4936776930196</v>
+        <v>52.24673718123758</v>
       </c>
       <c r="F5" t="n">
-        <v>301.5481769438161</v>
+        <v>45.3012364320341</v>
       </c>
       <c r="G5" t="n">
-        <v>289.0979468060584</v>
+        <v>32.8510062942764</v>
       </c>
       <c r="H5" t="n">
-        <v>32.8510062942763</v>
+        <v>32.8510062942764</v>
       </c>
       <c r="I5" t="n">
-        <v>32.8510062942763</v>
+        <v>32.8510062942764</v>
       </c>
       <c r="J5" t="n">
-        <v>103.7588362828599</v>
+        <v>103.7588362828606</v>
       </c>
       <c r="K5" t="n">
-        <v>260.7698107230111</v>
+        <v>260.7698107230127</v>
       </c>
       <c r="L5" t="n">
-        <v>492.4575702340398</v>
+        <v>492.4575702340422</v>
       </c>
       <c r="M5" t="n">
-        <v>781.9242815861681</v>
+        <v>781.9242815861711</v>
       </c>
       <c r="N5" t="n">
-        <v>1080.688675334936</v>
+        <v>1080.68867533494</v>
       </c>
       <c r="O5" t="n">
-        <v>1349.468159143672</v>
+        <v>1349.468159143676</v>
       </c>
       <c r="P5" t="n">
-        <v>1544.364229282341</v>
+        <v>1544.364229282346</v>
       </c>
       <c r="Q5" t="n">
-        <v>1642.550314713815</v>
+        <v>1642.55031471382</v>
       </c>
       <c r="R5" t="n">
-        <v>1642.550314713815</v>
+        <v>1642.55031471382</v>
       </c>
       <c r="S5" t="n">
-        <v>1642.550314713815</v>
+        <v>1499.942777813196</v>
       </c>
       <c r="T5" t="n">
-        <v>1430.364466536662</v>
+        <v>1287.756929636043</v>
       </c>
       <c r="U5" t="n">
-        <v>1430.364466536662</v>
+        <v>1034.112998188027</v>
       </c>
       <c r="V5" t="n">
-        <v>1430.364466536662</v>
+        <v>1034.112998188027</v>
       </c>
       <c r="W5" t="n">
-        <v>1430.364466536662</v>
+        <v>1034.112998188027</v>
       </c>
       <c r="X5" t="n">
-        <v>1056.898708275582</v>
+        <v>660.6472399269471</v>
       </c>
       <c r="Y5" t="n">
-        <v>666.7593762997701</v>
+        <v>270.5079079511354</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>624.6793244493424</v>
+        <v>228.8253171007557</v>
       </c>
       <c r="C6" t="n">
-        <v>624.6793244493424</v>
+        <v>228.8253171007557</v>
       </c>
       <c r="D6" t="n">
-        <v>475.7449147880912</v>
+        <v>79.89090743950442</v>
       </c>
       <c r="E6" t="n">
-        <v>316.5074597826357</v>
+        <v>79.89090743950442</v>
       </c>
       <c r="F6" t="n">
-        <v>169.9729018095206</v>
+        <v>79.89090743950442</v>
       </c>
       <c r="G6" t="n">
-        <v>32.8510062942763</v>
+        <v>32.8510062942764</v>
       </c>
       <c r="H6" t="n">
-        <v>32.8510062942763</v>
+        <v>32.8510062942764</v>
       </c>
       <c r="I6" t="n">
-        <v>32.8510062942763</v>
+        <v>32.8510062942764</v>
       </c>
       <c r="J6" t="n">
-        <v>56.26537711121822</v>
+        <v>56.26537711121855</v>
       </c>
       <c r="K6" t="n">
-        <v>433.1743036725825</v>
+        <v>174.4390909484108</v>
       </c>
       <c r="L6" t="n">
-        <v>638.3959866239229</v>
+        <v>580.9702938400812</v>
       </c>
       <c r="M6" t="n">
-        <v>897.236879118964</v>
+        <v>839.8111863351229</v>
       </c>
       <c r="N6" t="n">
-        <v>1177.337164748983</v>
+        <v>1119.911471965142</v>
       </c>
       <c r="O6" t="n">
-        <v>1411.354408869193</v>
+        <v>1353.928716085353</v>
       </c>
       <c r="P6" t="n">
-        <v>1579.840812357065</v>
+        <v>1522.415119573225</v>
       </c>
       <c r="Q6" t="n">
-        <v>1642.550314713815</v>
+        <v>1642.55031471382</v>
       </c>
       <c r="R6" t="n">
-        <v>1641.275573401331</v>
+        <v>1641.275573401336</v>
       </c>
       <c r="S6" t="n">
-        <v>1641.275573401331</v>
+        <v>1497.743396113248</v>
       </c>
       <c r="T6" t="n">
-        <v>1550.038057226974</v>
+        <v>1302.041918051255</v>
       </c>
       <c r="U6" t="n">
-        <v>1321.920289614819</v>
+        <v>1302.041918051255</v>
       </c>
       <c r="V6" t="n">
-        <v>1086.768181383077</v>
+        <v>1066.889809819512</v>
       </c>
       <c r="W6" t="n">
-        <v>832.5308246548752</v>
+        <v>812.6524530913105</v>
       </c>
       <c r="X6" t="n">
-        <v>624.6793244493424</v>
+        <v>604.8009528857776</v>
       </c>
       <c r="Y6" t="n">
-        <v>624.6793244493424</v>
+        <v>397.0406541208237</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.1965783598636</v>
+        <v>351.9038286345191</v>
       </c>
       <c r="C7" t="n">
-        <v>498.1965783598636</v>
+        <v>182.9676457066121</v>
       </c>
       <c r="D7" t="n">
-        <v>348.0799389475278</v>
+        <v>32.8510062942764</v>
       </c>
       <c r="E7" t="n">
-        <v>348.0799389475278</v>
+        <v>32.8510062942764</v>
       </c>
       <c r="F7" t="n">
-        <v>201.1899914496175</v>
+        <v>32.8510062942764</v>
       </c>
       <c r="G7" t="n">
-        <v>32.8510062942763</v>
+        <v>32.8510062942764</v>
       </c>
       <c r="H7" t="n">
-        <v>32.8510062942763</v>
+        <v>32.8510062942764</v>
       </c>
       <c r="I7" t="n">
-        <v>32.8510062942763</v>
+        <v>32.8510062942764</v>
       </c>
       <c r="J7" t="n">
-        <v>33.89295411735817</v>
+        <v>33.89295411735841</v>
       </c>
       <c r="K7" t="n">
-        <v>165.4420311779935</v>
+        <v>165.442031177994</v>
       </c>
       <c r="L7" t="n">
-        <v>389.3059936565136</v>
+        <v>389.3059936565144</v>
       </c>
       <c r="M7" t="n">
-        <v>635.7282771409656</v>
+        <v>635.7282771409667</v>
       </c>
       <c r="N7" t="n">
-        <v>881.7258059268959</v>
+        <v>881.7258059268972</v>
       </c>
       <c r="O7" t="n">
-        <v>1092.928044100019</v>
+        <v>1092.928044100021</v>
       </c>
       <c r="P7" t="n">
-        <v>1250.127362942351</v>
+        <v>1250.127362942353</v>
       </c>
       <c r="Q7" t="n">
-        <v>1275.528942871346</v>
+        <v>1275.528942871348</v>
       </c>
       <c r="R7" t="n">
-        <v>1275.528942871346</v>
+        <v>1275.528942871348</v>
       </c>
       <c r="S7" t="n">
-        <v>1072.75672476976</v>
+        <v>1072.756724769763</v>
       </c>
       <c r="T7" t="n">
-        <v>848.2720201653933</v>
+        <v>1072.756724769763</v>
       </c>
       <c r="U7" t="n">
-        <v>559.1344542803063</v>
+        <v>1072.756724769763</v>
       </c>
       <c r="V7" t="n">
-        <v>559.1344542803063</v>
+        <v>818.0722365638757</v>
       </c>
       <c r="W7" t="n">
-        <v>559.1344542803063</v>
+        <v>528.6550665269151</v>
       </c>
       <c r="X7" t="n">
-        <v>559.1344542803063</v>
+        <v>528.6550665269151</v>
       </c>
       <c r="Y7" t="n">
-        <v>559.1344542803063</v>
+        <v>528.6550665269151</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1502.660066001256</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="C8" t="n">
-        <v>1502.660066001256</v>
+        <v>1399.987221986177</v>
       </c>
       <c r="D8" t="n">
-        <v>1144.394367394505</v>
+        <v>1041.721523379427</v>
       </c>
       <c r="E8" t="n">
-        <v>1144.394367394505</v>
+        <v>655.9332707811825</v>
       </c>
       <c r="F8" t="n">
-        <v>733.4084626048977</v>
+        <v>648.987770031979</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>233.2830197562679</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.89447953245</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.125824262336</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="X8" t="n">
-        <v>1502.660066001256</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="Y8" t="n">
-        <v>1502.660066001256</v>
+        <v>1768.949738926589</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429755</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744472</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733667</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506774</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.189556406156</v>
+        <v>475.205037342667</v>
       </c>
       <c r="C10" t="n">
-        <v>348.2533734782492</v>
+        <v>475.205037342667</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1367340659135</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1586.371647458003</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234358</v>
+        <v>1389.742899617864</v>
       </c>
       <c r="T10" t="n">
-        <v>1289.280765547021</v>
+        <v>1166.764418812599</v>
       </c>
       <c r="U10" t="n">
-        <v>1289.280765547021</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="V10" t="n">
-        <v>1034.596277341134</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="W10" t="n">
-        <v>745.1791073041734</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="X10" t="n">
-        <v>517.189556406156</v>
+        <v>877.6460813164368</v>
       </c>
       <c r="Y10" t="n">
-        <v>517.189556406156</v>
+        <v>656.8535021729067</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1625.93056616593</v>
+        <v>1872.090169197695</v>
       </c>
       <c r="C11" t="n">
-        <v>1256.968049225519</v>
+        <v>1503.127652257283</v>
       </c>
       <c r="D11" t="n">
-        <v>898.7023506187682</v>
+        <v>1144.861953650533</v>
       </c>
       <c r="E11" t="n">
-        <v>512.9140980205239</v>
+        <v>759.0737010522888</v>
       </c>
       <c r="F11" t="n">
-        <v>101.9281932309162</v>
+        <v>759.0737010522888</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9281932309162</v>
+        <v>344.4579364934343</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309162</v>
@@ -5039,13 +5039,13 @@
         <v>77.53766591592074</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706888</v>
+        <v>304.4060796706893</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656958</v>
+        <v>695.1615405656962</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
         <v>1828.956123087831</v>
@@ -5057,7 +5057,7 @@
         <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479996</v>
+        <v>3493.127967479995</v>
       </c>
       <c r="Q11" t="n">
         <v>3789.749829464062</v>
@@ -5069,22 +5069,22 @@
         <v>3776.999350345378</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926742</v>
+        <v>3573.020743926743</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.52680204827</v>
+        <v>3319.526802048271</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.4639147047</v>
+        <v>2988.463914704701</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434585</v>
+        <v>2635.695259434586</v>
       </c>
       <c r="X11" t="n">
-        <v>2402.669738205864</v>
+        <v>2262.229501173506</v>
       </c>
       <c r="Y11" t="n">
-        <v>2012.530406230052</v>
+        <v>1872.090169197695</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.1320871839085</v>
+        <v>88.13208718390848</v>
       </c>
       <c r="I12" t="n">
         <v>77.53766591592074</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592074</v>
+        <v>193.8410919870414</v>
       </c>
       <c r="K12" t="n">
-        <v>354.4735703335451</v>
+        <v>193.8410919870414</v>
       </c>
       <c r="L12" t="n">
-        <v>773.1706109914967</v>
+        <v>612.5381326449931</v>
       </c>
       <c r="M12" t="n">
-        <v>1281.127176948025</v>
+        <v>1120.494698601522</v>
       </c>
       <c r="N12" t="n">
-        <v>1816.936486649235</v>
+        <v>1656.304008302732</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>710.9784189428855</v>
+        <v>184.1123407281364</v>
       </c>
       <c r="C13" t="n">
-        <v>542.0422360149786</v>
+        <v>184.1123407281364</v>
       </c>
       <c r="D13" t="n">
-        <v>391.9255966026428</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="E13" t="n">
-        <v>391.9255966026428</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="F13" t="n">
-        <v>245.0356491047325</v>
+        <v>77.53766591592074</v>
       </c>
       <c r="G13" t="n">
         <v>77.53766591592074</v>
@@ -5200,13 +5200,13 @@
         <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648145</v>
+        <v>364.1690246648146</v>
       </c>
       <c r="L13" t="n">
-        <v>710.578865434481</v>
+        <v>710.5788654344813</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1086.20859537694</v>
       </c>
       <c r="N13" t="n">
         <v>1458.341306336948</v>
@@ -5215,34 +5215,34 @@
         <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>2137.362968742808</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>2137.362968742808</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1848.271275692259</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1593.586787486372</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>1304.169617449412</v>
+        <v>814.5429355999236</v>
       </c>
       <c r="X13" t="n">
-        <v>1076.180066551394</v>
+        <v>586.5533847019062</v>
       </c>
       <c r="Y13" t="n">
-        <v>892.6268837731252</v>
+        <v>365.7608055583761</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.6725264685176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406107</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282751</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458821</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5455,31 +5455,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377265</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442287</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987573</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5501,49 +5501,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>95.58405025273903</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327647</v>
+        <v>513.8536007400677</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048579</v>
+        <v>344.9174178121608</v>
       </c>
       <c r="D19" t="n">
-        <v>444.701316492522</v>
+        <v>194.800778399825</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.800778399825</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>194.800778399825</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038306</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797707</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138376</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703074</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5844,13 +5844,13 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>984.5467179762942</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C22" t="n">
-        <v>815.6105350483873</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D22" t="n">
-        <v>665.4938956360515</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E22" t="n">
-        <v>517.5808020536585</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>1166.195182806534</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="23">
@@ -5987,13 +5987,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6008,7 +6008,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314253</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782946</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797733</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703112</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="26">
@@ -6218,16 +6218,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6309,22 +6309,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>552.3777707160737</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C28" t="n">
-        <v>383.4415877881668</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D28" t="n">
-        <v>383.4415877881668</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,7 +6406,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1726.910023830708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1472.225535624822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1182.808365587861</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>954.8188146898435</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="Y28" t="n">
-        <v>734.0262355463134</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="29">
@@ -6455,19 +6455,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>119.290296770379</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K30" t="n">
-        <v>119.290296770379</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6695,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,19 +6783,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188002</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908933</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908934</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,28 +6929,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,16 +6968,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2367.795837888943</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7078,16 +7078,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297713</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,13 +7111,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
@@ -7135,7 +7135,7 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
         <v>695.5020655703109</v>
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188005</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908936</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908936</v>
+        <v>376.4492432300688</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908936</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908936</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057735</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7345,37 +7345,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925703</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490403</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,16 +7442,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,16 +7485,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
         <v>680.0291294438176</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400708</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121639</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121639</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,7 +7591,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="44">
@@ -7640,25 +7640,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7673,10 +7673,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466573</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273902</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400713</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121644</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121644</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270444</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138412</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.233205181928469</v>
+        <v>73.01783107116299</v>
       </c>
       <c r="K3" t="n">
-        <v>66.78462588923452</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8137,13 +8137,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>46.25131710763584</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>118.017211672429</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
         <v>171.8177168444618</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>28.58095358104325</v>
+        <v>28.58095358104296</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>261.3486997213863</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>203.3429494346764</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>58.00575028671147</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241559</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>265.0304328515151</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>49.87305750948184</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>139.0358346620346</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>43.10654495411896</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>36.86700240160823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>104.8770068749573</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393419</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012096</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>31.7134015457939</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.54986409393094</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>62.3554390986505</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667962</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>38.13892827624264</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>39.70888054695391</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25084,13 +25084,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864968</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.2291039219422</v>
+        <v>144.634190040852</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,25 +25546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>12.0487562892246</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823129</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194214</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.2291039219421</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1001194.359070681</v>
+        <v>1001194.359070682</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457132</v>
       </c>
       <c r="C2" t="n">
         <v>328416.7079457135</v>
@@ -26320,37 +26320,37 @@
         <v>328416.7079457134</v>
       </c>
       <c r="E2" t="n">
-        <v>293035.6977097584</v>
+        <v>293035.6977097585</v>
       </c>
       <c r="F2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="G2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="H2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="I2" t="n">
         <v>322858.6398760023</v>
       </c>
       <c r="J2" t="n">
-        <v>322858.6398760022</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="K2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="L2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="M2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="N2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="O2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
         <v>322858.6398760023</v>
@@ -26366,16 +26366,16 @@
         <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>189098.6751706867</v>
+        <v>189098.6751706882</v>
       </c>
       <c r="D3" t="n">
-        <v>237173.5150517692</v>
+        <v>237173.5150517679</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545776</v>
+        <v>313577.1573545778</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704287</v>
+        <v>189308.2687704285</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353576</v>
+        <v>62744.31078353582</v>
       </c>
       <c r="K3" t="n">
-        <v>43966.08035203355</v>
+        <v>43966.08035203388</v>
       </c>
       <c r="L3" t="n">
-        <v>58197.58031572241</v>
+        <v>58197.58031572207</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.4037127308</v>
+        <v>81897.40371273083</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.5741320236</v>
+        <v>49839.57413202358</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>261062.8075060265</v>
       </c>
       <c r="C4" t="n">
-        <v>210476.9869351605</v>
+        <v>210476.9869351601</v>
       </c>
       <c r="D4" t="n">
         <v>143951.0939828189</v>
@@ -26436,25 +26436,25 @@
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683042</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683045</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
+        <v>12996.86414683044</v>
+      </c>
+      <c r="N4" t="n">
+        <v>12996.86414683044</v>
+      </c>
+      <c r="O4" t="n">
         <v>12996.8641468304</v>
-      </c>
-      <c r="N4" t="n">
-        <v>12996.86414683046</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12996.86414683045</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26470,7 +26470,7 @@
         <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
-        <v>74737.94401911824</v>
+        <v>74737.94401911834</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-646038.2462747752</v>
+        <v>-646038.2462747755</v>
       </c>
       <c r="C6" t="n">
-        <v>-145896.898179252</v>
+        <v>-145896.8981792532</v>
       </c>
       <c r="D6" t="n">
-        <v>-145645.6735287194</v>
+        <v>-145645.6735287181</v>
       </c>
       <c r="E6" t="n">
-        <v>-118570.3902993888</v>
+        <v>-118791.5216133636</v>
       </c>
       <c r="F6" t="n">
-        <v>19430.97713483608</v>
+        <v>19396.23920940065</v>
       </c>
       <c r="G6" t="n">
-        <v>208739.2459052648</v>
+        <v>208704.5079798292</v>
       </c>
       <c r="H6" t="n">
-        <v>208739.2459052649</v>
+        <v>208704.507979829</v>
       </c>
       <c r="I6" t="n">
-        <v>208739.2459052647</v>
+        <v>208704.5079798291</v>
       </c>
       <c r="J6" t="n">
-        <v>145994.9351217289</v>
+        <v>145960.1971962933</v>
       </c>
       <c r="K6" t="n">
-        <v>164773.1655532311</v>
+        <v>164738.4276277953</v>
       </c>
       <c r="L6" t="n">
-        <v>150541.6655895422</v>
+        <v>150506.9276641072</v>
       </c>
       <c r="M6" t="n">
-        <v>126841.842192534</v>
+        <v>126807.1042670984</v>
       </c>
       <c r="N6" t="n">
-        <v>158899.6717732411</v>
+        <v>158864.9338478056</v>
       </c>
       <c r="O6" t="n">
-        <v>208739.2459052647</v>
+        <v>208704.5079798292</v>
       </c>
       <c r="P6" t="n">
-        <v>208739.2459052647</v>
+        <v>208704.507979829</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>740.5311575902867</v>
+        <v>740.5311575902879</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26790,13 +26790,13 @@
         <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>410.6375786784537</v>
+        <v>410.637578678455</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490092</v>
+        <v>969.2208239490093</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26960,16 +26960,16 @@
         <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>147.0550572522221</v>
+        <v>147.0550572522233</v>
       </c>
       <c r="D3" t="n">
-        <v>193.5337345272524</v>
+        <v>193.5337345272512</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974115</v>
+        <v>268.1763450974117</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267231</v>
+        <v>165.7342631267229</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8296305369492</v>
+        <v>170.8296305369505</v>
       </c>
       <c r="D4" t="n">
-        <v>229.947253421585</v>
+        <v>229.9472534215838</v>
       </c>
       <c r="E4" t="n">
         <v>328.6359918489704</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415043</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>170.8296305369492</v>
+        <v>170.8296305369505</v>
       </c>
       <c r="L4" t="n">
-        <v>229.9472534215852</v>
+        <v>229.9472534215838</v>
       </c>
       <c r="M4" t="n">
         <v>328.6359918489704</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>170.8296305369492</v>
+        <v>170.8296305369505</v>
       </c>
       <c r="L4" t="n">
-        <v>229.947253421585</v>
+        <v>229.9472534215838</v>
       </c>
       <c r="M4" t="n">
         <v>328.6359918489704</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506392</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>142.9258935219761</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>328.4958878637589</v>
       </c>
       <c r="D2" t="n">
-        <v>114.8750934791784</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>195.6532050186743</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>173.1089558044323</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>75.23293593371108</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.651863114966</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>109.4330205759085</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27458,16 +27458,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>3.349029949228509</v>
       </c>
       <c r="G3" t="n">
         <v>136.0669836643703</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183515</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
         <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>11.88703501941509</v>
       </c>
       <c r="X3" t="n">
-        <v>6.181978158461163</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,7 +27555,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
         <v>17.69584188176904</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.3658819001187</v>
+        <v>20.2217596287831</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>93.01360393871735</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V4" t="n">
-        <v>12.32969518232349</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>166.6552826012817</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>55.30203063655404</v>
+        <v>308.9865017432183</v>
       </c>
       <c r="I5" t="n">
-        <v>95.70472393020677</v>
+        <v>95.7047239302066</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>141.1814615316175</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1074921335361</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27701,19 +27701,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>89.18117442631618</v>
       </c>
       <c r="H6" t="n">
-        <v>96.85195735900767</v>
+        <v>96.85195735900766</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55541033175705</v>
+        <v>34.55541033175696</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>142.096855515207</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>103.41932226876</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8365899360328</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>119.503483020699</v>
+        <v>4.848254668465245</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6555953037877</v>
       </c>
       <c r="H7" t="n">
-        <v>150.3543942759101</v>
+        <v>150.35439427591</v>
       </c>
       <c r="I7" t="n">
-        <v>115.2918344467883</v>
+        <v>115.2918344467882</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>117.249668337144</v>
+        <v>117.2496683371439</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.2398575583235</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2461902262361</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>102.9361087313042</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>120.8026817060232</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>51.98384452924417</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>71.71745537674823</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.247535904753022e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29323,13 +29323,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.977009678754919</v>
+        <v>2.977009678754924</v>
       </c>
       <c r="H5" t="n">
-        <v>30.48830037254882</v>
+        <v>30.48830037254887</v>
       </c>
       <c r="I5" t="n">
-        <v>114.7711656401991</v>
+        <v>114.7711656401993</v>
       </c>
       <c r="J5" t="n">
-        <v>252.6699752222256</v>
+        <v>252.669975222226</v>
       </c>
       <c r="K5" t="n">
-        <v>378.6867949239214</v>
+        <v>378.686794923922</v>
       </c>
       <c r="L5" t="n">
-        <v>469.7944548801173</v>
+        <v>469.7944548801181</v>
       </c>
       <c r="M5" t="n">
-        <v>522.7368507546751</v>
+        <v>522.7368507546759</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1952795044376</v>
+        <v>531.1952795044384</v>
       </c>
       <c r="O5" t="n">
-        <v>501.5926395113183</v>
+        <v>501.5926395113191</v>
       </c>
       <c r="P5" t="n">
-        <v>428.0977130670562</v>
+        <v>428.0977130670568</v>
       </c>
       <c r="Q5" t="n">
-        <v>321.4835539466455</v>
+        <v>321.483553946646</v>
       </c>
       <c r="R5" t="n">
-        <v>187.0045842330889</v>
+        <v>187.0045842330892</v>
       </c>
       <c r="S5" t="n">
-        <v>67.8386080546278</v>
+        <v>67.8386080546279</v>
       </c>
       <c r="T5" t="n">
-        <v>13.03185986874967</v>
+        <v>13.03185986874969</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2381607743003935</v>
+        <v>0.2381607743003939</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.59284060311873</v>
+        <v>1.592840603118733</v>
       </c>
       <c r="H6" t="n">
-        <v>15.38348687748879</v>
+        <v>15.38348687748881</v>
       </c>
       <c r="I6" t="n">
-        <v>54.84122251965803</v>
+        <v>54.84122251965812</v>
       </c>
       <c r="J6" t="n">
-        <v>150.4885062797393</v>
+        <v>150.4885062797396</v>
       </c>
       <c r="K6" t="n">
-        <v>257.2088266886942</v>
+        <v>257.2088266886946</v>
       </c>
       <c r="L6" t="n">
-        <v>345.8490090236523</v>
+        <v>345.8490090236529</v>
       </c>
       <c r="M6" t="n">
-        <v>403.5894808867062</v>
+        <v>403.5894808867068</v>
       </c>
       <c r="N6" t="n">
-        <v>414.2712935277964</v>
+        <v>414.271293527797</v>
       </c>
       <c r="O6" t="n">
-        <v>378.9772991113234</v>
+        <v>378.977299111324</v>
       </c>
       <c r="P6" t="n">
-        <v>304.1626937657161</v>
+        <v>304.1626937657166</v>
       </c>
       <c r="Q6" t="n">
-        <v>203.3247057595067</v>
+        <v>203.324705759507</v>
       </c>
       <c r="R6" t="n">
-        <v>98.89584025328399</v>
+        <v>98.89584025328415</v>
       </c>
       <c r="S6" t="n">
-        <v>29.58631558863078</v>
+        <v>29.58631558863082</v>
       </c>
       <c r="T6" t="n">
-        <v>6.420265413447861</v>
+        <v>6.420265413447871</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1047921449420218</v>
+        <v>0.1047921449420219</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.335384054671009</v>
+        <v>1.335384054671011</v>
       </c>
       <c r="H7" t="n">
-        <v>11.87277823152952</v>
+        <v>11.87277823152954</v>
       </c>
       <c r="I7" t="n">
-        <v>40.15864048046998</v>
+        <v>40.15864048047005</v>
       </c>
       <c r="J7" t="n">
-        <v>94.41165266524031</v>
+        <v>94.41165266524045</v>
       </c>
       <c r="K7" t="n">
-        <v>155.1473474426863</v>
+        <v>155.1473474426865</v>
       </c>
       <c r="L7" t="n">
-        <v>198.5351893644516</v>
+        <v>198.535189364452</v>
       </c>
       <c r="M7" t="n">
-        <v>209.3275204972018</v>
+        <v>209.3275204972022</v>
       </c>
       <c r="N7" t="n">
-        <v>204.3501799297919</v>
+        <v>204.3501799297922</v>
       </c>
       <c r="O7" t="n">
-        <v>188.7504662002259</v>
+        <v>188.7504662002262</v>
       </c>
       <c r="P7" t="n">
-        <v>161.5086314849372</v>
+        <v>161.5086314849375</v>
       </c>
       <c r="Q7" t="n">
-        <v>111.8202047961333</v>
+        <v>111.8202047961335</v>
       </c>
       <c r="R7" t="n">
-        <v>60.04372304002553</v>
+        <v>60.04372304002562</v>
       </c>
       <c r="S7" t="n">
-        <v>23.27210211640293</v>
+        <v>23.27210211640297</v>
       </c>
       <c r="T7" t="n">
-        <v>5.705731869957945</v>
+        <v>5.705731869957954</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07283913025478238</v>
+        <v>0.07283913025478249</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869145</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.4972987763924</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>614.7923367975128</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>762.7042574544658</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>848.6554437954562</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>862.387576118017</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>814.3281336956807</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>695.010221962036</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>521.923732282597</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
         <v>0.3866504481495315</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.03390294469213</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193138</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598381</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>561.480683474775</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821481</v>
+        <v>655.2214742821482</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340505</v>
+        <v>672.5632370340506</v>
       </c>
       <c r="O12" t="n">
-        <v>342.5951556909295</v>
+        <v>489.9737736272077</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383446</v>
+        <v>493.8035753383447</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.094612904754</v>
+        <v>330.0946129047541</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
@@ -31926,10 +31926,10 @@
         <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
         <v>306.4335533806239</v>
@@ -31938,16 +31938,16 @@
         <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>97.48008457811713</v>
       </c>
       <c r="S13" t="n">
         <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.263170188377487</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32084,7 +32084,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>484.1423712692491</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,22 +32312,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M18" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>354.9153144485699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,31 +32786,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>152.5685698206133</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,13 +33503,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33518,7 +33518,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33734,31 +33734,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>321.1112257697157</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33913,7 +33913,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33971,13 +33971,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>398.1179220955534</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0266243181833</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34445,16 +34445,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K45" t="n">
-        <v>324.9782573297445</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>66.78462588923452</v>
       </c>
       <c r="K3" t="n">
-        <v>135.0753528219182</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
         <v>138.6157555714078</v>
@@ -34857,13 +34857,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0686157531411</v>
+        <v>41.57616651612445</v>
       </c>
       <c r="L4" t="n">
         <v>186.6999948493114</v>
       </c>
       <c r="M4" t="n">
-        <v>146.8505817925165</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N4" t="n">
         <v>207.9023887233376</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>71.62407069553927</v>
+        <v>71.62407069553967</v>
       </c>
       <c r="K5" t="n">
-        <v>158.5969438789408</v>
+        <v>158.5969438789414</v>
       </c>
       <c r="L5" t="n">
-        <v>234.0280399101301</v>
+        <v>234.0280399101308</v>
       </c>
       <c r="M5" t="n">
-        <v>292.3906175274024</v>
+        <v>292.3906175274032</v>
       </c>
       <c r="N5" t="n">
-        <v>301.7822159078467</v>
+        <v>301.7822159078475</v>
       </c>
       <c r="O5" t="n">
-        <v>271.4944280896316</v>
+        <v>271.4944280896324</v>
       </c>
       <c r="P5" t="n">
-        <v>196.8647173117866</v>
+        <v>196.8647173117873</v>
       </c>
       <c r="Q5" t="n">
-        <v>99.17786407219606</v>
+        <v>99.17786407219651</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>23.65087961307265</v>
+        <v>23.65087961307287</v>
       </c>
       <c r="K6" t="n">
-        <v>380.7160874357215</v>
+        <v>119.3673877143356</v>
       </c>
       <c r="L6" t="n">
-        <v>207.2946292437782</v>
+        <v>410.637578678455</v>
       </c>
       <c r="M6" t="n">
-        <v>261.4554469646879</v>
+        <v>261.4554469646885</v>
       </c>
       <c r="N6" t="n">
-        <v>282.9295814444631</v>
+        <v>282.9295814444637</v>
       </c>
       <c r="O6" t="n">
-        <v>236.381054666879</v>
+        <v>236.3810546668796</v>
       </c>
       <c r="P6" t="n">
-        <v>170.1882863513858</v>
+        <v>170.1882863513864</v>
       </c>
       <c r="Q6" t="n">
-        <v>63.34293167348517</v>
+        <v>121.348681960197</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.052472548567536</v>
+        <v>1.052472548567678</v>
       </c>
       <c r="K7" t="n">
-        <v>132.8778556168034</v>
+        <v>132.8778556168036</v>
       </c>
       <c r="L7" t="n">
-        <v>226.1252146247678</v>
+        <v>226.1252146247681</v>
       </c>
       <c r="M7" t="n">
-        <v>248.9113974590424</v>
+        <v>248.9113974590427</v>
       </c>
       <c r="N7" t="n">
-        <v>248.4823523090205</v>
+        <v>248.4823523090208</v>
       </c>
       <c r="O7" t="n">
-        <v>213.3355941142656</v>
+        <v>213.3355941142659</v>
       </c>
       <c r="P7" t="n">
-        <v>158.7871907498307</v>
+        <v>158.787190749831</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.65816154443891</v>
+        <v>25.65816154443908</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>397.6203974676407</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35267,7 +35267,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>514.7099619750473</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308545</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>394.7024857525323</v>
       </c>
       <c r="L11" t="n">
         <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>618.3092105681835</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.974512521426</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>584.2299222739939</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>463.7772262067664</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>299.6180424081475</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>88.01360235553085</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.4782081526471</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>422.9263036949008</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601297</v>
+        <v>513.0874403601299</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507173</v>
+        <v>541.2215249507174</v>
       </c>
       <c r="O12" t="n">
-        <v>199.998911246485</v>
+        <v>347.3775291827632</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240143</v>
+        <v>359.8291679240144</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187325</v>
+        <v>190.1128388187326</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655351</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>59.91672319186281</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
         <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323315</v>
       </c>
       <c r="O13" t="n">
         <v>331.0186812946636</v>
@@ -35586,7 +35586,7 @@
         <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>95.3763835677632</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>350.1679638549188</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M18" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36042,7 +36042,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096313</v>
       </c>
       <c r="L19" t="n">
         <v>394.3420143191314</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295228</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>25.73094315394658</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37166,7 +37166,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37382,31 +37382,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>187.1368183553855</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,13 +37619,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>259.5635423156792</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -38093,16 +38093,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K45" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
